--- a/render/Graphiques mortalité.xlsx
+++ b/render/Graphiques mortalité.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0278784-3431-4B64-90D7-292F1B7D3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE8C67-A2BC-47C3-9D60-46C3C7D939C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
   <si>
     <t>age</t>
   </si>
@@ -69,13 +70,377 @@
   </si>
   <si>
     <t>Bouches du rhone : Natifs/Non-natifs</t>
+  </si>
+  <si>
+    <t>Moins de 1 an</t>
+  </si>
+  <si>
+    <t>1 an</t>
+  </si>
+  <si>
+    <t>2 ans</t>
+  </si>
+  <si>
+    <t>3 ans</t>
+  </si>
+  <si>
+    <t>4 ans</t>
+  </si>
+  <si>
+    <t>5 ans</t>
+  </si>
+  <si>
+    <t>6 ans</t>
+  </si>
+  <si>
+    <t>7 ans</t>
+  </si>
+  <si>
+    <t>8 ans</t>
+  </si>
+  <si>
+    <t>9 ans</t>
+  </si>
+  <si>
+    <t>10 ans</t>
+  </si>
+  <si>
+    <t>11 ans</t>
+  </si>
+  <si>
+    <t>12 ans</t>
+  </si>
+  <si>
+    <t>13 ans</t>
+  </si>
+  <si>
+    <t>14 ans</t>
+  </si>
+  <si>
+    <t>15 ans</t>
+  </si>
+  <si>
+    <t>16 ans</t>
+  </si>
+  <si>
+    <t>17 ans</t>
+  </si>
+  <si>
+    <t>18 ans</t>
+  </si>
+  <si>
+    <t>19 ans</t>
+  </si>
+  <si>
+    <t>20 ans</t>
+  </si>
+  <si>
+    <t>21 ans</t>
+  </si>
+  <si>
+    <t>22 ans</t>
+  </si>
+  <si>
+    <t>23 ans</t>
+  </si>
+  <si>
+    <t>24 ans</t>
+  </si>
+  <si>
+    <t>25 ans</t>
+  </si>
+  <si>
+    <t>26 ans</t>
+  </si>
+  <si>
+    <t>27 ans</t>
+  </si>
+  <si>
+    <t>28 ans</t>
+  </si>
+  <si>
+    <t>29 ans</t>
+  </si>
+  <si>
+    <t>30 ans</t>
+  </si>
+  <si>
+    <t>31 ans</t>
+  </si>
+  <si>
+    <t>32 ans</t>
+  </si>
+  <si>
+    <t>33 ans</t>
+  </si>
+  <si>
+    <t>34 ans</t>
+  </si>
+  <si>
+    <t>35 ans</t>
+  </si>
+  <si>
+    <t>36 ans</t>
+  </si>
+  <si>
+    <t>37 ans</t>
+  </si>
+  <si>
+    <t>38 ans</t>
+  </si>
+  <si>
+    <t>39 ans</t>
+  </si>
+  <si>
+    <t>40 ans</t>
+  </si>
+  <si>
+    <t>41 ans</t>
+  </si>
+  <si>
+    <t>42 ans</t>
+  </si>
+  <si>
+    <t>43 ans</t>
+  </si>
+  <si>
+    <t>44 ans</t>
+  </si>
+  <si>
+    <t>45 ans</t>
+  </si>
+  <si>
+    <t>46 ans</t>
+  </si>
+  <si>
+    <t>47 ans</t>
+  </si>
+  <si>
+    <t>48 ans</t>
+  </si>
+  <si>
+    <t>49 ans</t>
+  </si>
+  <si>
+    <t>50 ans</t>
+  </si>
+  <si>
+    <t>51 ans</t>
+  </si>
+  <si>
+    <t>52 ans</t>
+  </si>
+  <si>
+    <t>53 ans</t>
+  </si>
+  <si>
+    <t>54 ans</t>
+  </si>
+  <si>
+    <t>55 ans</t>
+  </si>
+  <si>
+    <t>56 ans</t>
+  </si>
+  <si>
+    <t>57 ans</t>
+  </si>
+  <si>
+    <t>58 ans</t>
+  </si>
+  <si>
+    <t>59 ans</t>
+  </si>
+  <si>
+    <t>60 ans</t>
+  </si>
+  <si>
+    <t>61 ans</t>
+  </si>
+  <si>
+    <t>62 ans</t>
+  </si>
+  <si>
+    <t>63 ans</t>
+  </si>
+  <si>
+    <t>64 ans</t>
+  </si>
+  <si>
+    <t>65 ans</t>
+  </si>
+  <si>
+    <t>66 ans</t>
+  </si>
+  <si>
+    <t>67 ans</t>
+  </si>
+  <si>
+    <t>68 ans</t>
+  </si>
+  <si>
+    <t>69 ans</t>
+  </si>
+  <si>
+    <t>70 ans</t>
+  </si>
+  <si>
+    <t>71 ans</t>
+  </si>
+  <si>
+    <t>72 ans</t>
+  </si>
+  <si>
+    <t>73 ans</t>
+  </si>
+  <si>
+    <t>74 ans</t>
+  </si>
+  <si>
+    <t>75 ans</t>
+  </si>
+  <si>
+    <t>76 ans</t>
+  </si>
+  <si>
+    <t>77 ans</t>
+  </si>
+  <si>
+    <t>78 ans</t>
+  </si>
+  <si>
+    <t>79 ans</t>
+  </si>
+  <si>
+    <t>80 ans</t>
+  </si>
+  <si>
+    <t>81 ans</t>
+  </si>
+  <si>
+    <t>82 ans</t>
+  </si>
+  <si>
+    <t>83 ans</t>
+  </si>
+  <si>
+    <t>84 ans</t>
+  </si>
+  <si>
+    <t>85 ans ou plus</t>
+  </si>
+  <si>
+    <t>PACA</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>FEMME</t>
+  </si>
+  <si>
+    <t>ENSEMBLE</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>1 967 299</t>
+  </si>
+  <si>
+    <t>2 006 069</t>
+  </si>
+  <si>
+    <t>2 048 070</t>
+  </si>
+  <si>
+    <t>0 à 14 ans</t>
+  </si>
+  <si>
+    <t>350 152</t>
+  </si>
+  <si>
+    <t>357 911</t>
+  </si>
+  <si>
+    <t>357 129</t>
+  </si>
+  <si>
+    <t>15 à 29 ans</t>
+  </si>
+  <si>
+    <t>378 394</t>
+  </si>
+  <si>
+    <t>366 747</t>
+  </si>
+  <si>
+    <t>361 470</t>
+  </si>
+  <si>
+    <t>30 à 44 ans</t>
+  </si>
+  <si>
+    <t>392 494</t>
+  </si>
+  <si>
+    <t>384 729</t>
+  </si>
+  <si>
+    <t>382 737</t>
+  </si>
+  <si>
+    <t>45 à 59 ans</t>
+  </si>
+  <si>
+    <t>391 325</t>
+  </si>
+  <si>
+    <t>396 559</t>
+  </si>
+  <si>
+    <t>401 976</t>
+  </si>
+  <si>
+    <t>60 à 74 ans</t>
+  </si>
+  <si>
+    <t>278 861</t>
+  </si>
+  <si>
+    <t>310 977</t>
+  </si>
+  <si>
+    <t>341 102</t>
+  </si>
+  <si>
+    <t>75 ans ou plus</t>
+  </si>
+  <si>
+    <t>176 073</t>
+  </si>
+  <si>
+    <t>189 146</t>
+  </si>
+  <si>
+    <t>203 655</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +456,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF525457"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF525457"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +490,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0096DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -114,11 +531,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,10 +611,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,627 +2694,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Hommes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$L$3:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$M$3:$M$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>23.4651092484972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.69145787738044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.928074058699721</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.175828781674259</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.42441078176158</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.67947940139522</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.934262583869749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.197523717816601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.466117169500642</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.74672132546597</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.038796471146419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.336845911195111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.63515991308196</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.95076461221268</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.25995070454378</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.59612831847914</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.943680309524151</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.296027655596831</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.6717330376531</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.061011937675829</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.4758059490367792</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9169920254280832</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.386370093781629</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.8889522213635166</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.4174414373035287</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.9856793573174993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-3A7C-4EDA-B79A-8F1BFA1783A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Femmes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$L$3:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$N$3:$N$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>28.399501870357842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.517455357412551</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.644764301988879</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.773768505350152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.906900664833881</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.045089518824859</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.186974496056241</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.329430140130661</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.473576803964669</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.636965547647989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.795268643063881</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.966378106621079</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.143303052590159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.334128224593311</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.52050272948113</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.73003244838984</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.94596706800049</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.18742839074433</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.434628703952439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.69819669188948</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.98408217366644</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.29560407734923</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.637181431864519</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10.00147769303593</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.4077964244006029</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.8472087056533653</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-3A7C-4EDA-B79A-8F1BFA1783A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="135313279"/>
-        <c:axId val="136257471"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="135313279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="136257471"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="136257471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="135313279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
             <c:v>Non-natifs</c:v>
           </c:tx>
           <c:spPr>
@@ -4228,6 +4128,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Âge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4294,6 +4249,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Espérance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de vie en année</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4338,9 +4353,1021 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FRANCE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3845762381140088E-2"/>
+                  <c:y val="-7.7091477371642722E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>France</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:alpha val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-195A-43B5-AEE4-DA5E2FAF5925}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$62:$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60 ans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61 ans</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62 ans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63 ans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64 ans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65 ans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66 ans</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67 ans</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68 ans</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69 ans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70 ans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71 ans</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72 ans</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73 ans</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74 ans</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75 ans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76 ans</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77 ans</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78 ans</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79 ans</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80 ans</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81 ans</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82 ans</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83 ans</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84 ans</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85 ans ou plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$62:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.##########</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0.0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0.0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-195A-43B5-AEE4-DA5E2FAF5925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BOUCHE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27786470743889935"/>
+                  <c:y val="4.6743298685629882E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Bouches-du-Rhône</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:alpha val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-195A-43B5-AEE4-DA5E2FAF5925}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$62:$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60 ans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61 ans</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62 ans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63 ans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64 ans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65 ans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66 ans</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67 ans</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68 ans</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69 ans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70 ans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71 ans</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72 ans</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73 ans</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74 ans</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75 ans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76 ans</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77 ans</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78 ans</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79 ans</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80 ans</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81 ans</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82 ans</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83 ans</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84 ans</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85 ans ou plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$62:$G$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>25.9665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.103499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.263500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.4145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.607500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.7805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.948499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.163499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.592500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.7835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.676500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.892499999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.410499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.958500000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9379999999999988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3064999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0119999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-195A-43B5-AEE4-DA5E2FAF5925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1109239279"/>
+        <c:axId val="989755183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1109239279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Âge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989755183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="989755183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Espérance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de vie en années</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109239279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4348,27 +5375,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6121,42 +7128,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433EAF25-5663-E228-2FA0-CBF622DDE141}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6185,7 +7156,48 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF2ED50-1B99-E952-E888-927970360290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6481,33 +7493,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555506B2-9E81-4121-BCA8-6C74D1B76C49}">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="130" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="10" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="2">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="K1" t="s">
         <v>6</v>
       </c>
@@ -6521,7 +7533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6570,9 +7582,9 @@
       <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -6623,9 +7635,9 @@
       <c r="S3">
         <v>65.81</v>
       </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>61</v>
       </c>
@@ -6678,7 +7690,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>62</v>
       </c>
@@ -6731,7 +7743,7 @@
         <v>63.86</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>63</v>
       </c>
@@ -6784,7 +7796,7 @@
         <v>62.89</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>64</v>
       </c>
@@ -6837,7 +7849,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>65</v>
       </c>
@@ -6890,7 +7902,7 @@
         <v>60.93</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>66</v>
       </c>
@@ -6943,7 +7955,7 @@
         <v>59.96</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>67</v>
       </c>
@@ -6996,7 +8008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>68</v>
       </c>
@@ -7049,7 +8061,7 @@
         <v>58.02</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>69</v>
       </c>
@@ -7102,7 +8114,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="2">
         <v>70</v>
       </c>
@@ -7155,7 +8167,7 @@
         <v>56.08</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="2">
         <v>71</v>
       </c>
@@ -7208,7 +8220,7 @@
         <v>55.11</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="2">
         <v>72</v>
       </c>
@@ -7261,7 +8273,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <v>73</v>
       </c>
@@ -7314,7 +8326,7 @@
         <v>53.16</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>74</v>
       </c>
@@ -7367,7 +8379,7 @@
         <v>52.19</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>75</v>
       </c>
@@ -7420,7 +8432,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>76</v>
       </c>
@@ -7473,7 +8485,7 @@
         <v>50.25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>77</v>
       </c>
@@ -7526,7 +8538,7 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>78</v>
       </c>
@@ -7579,7 +8591,7 @@
         <v>48.31</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>79</v>
       </c>
@@ -7632,7 +8644,7 @@
         <v>47.35</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>80</v>
       </c>
@@ -7685,7 +8697,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>81</v>
       </c>
@@ -7738,7 +8750,7 @@
         <v>45.43</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>82</v>
       </c>
@@ -7791,7 +8803,7 @@
         <v>44.47</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>83</v>
       </c>
@@ -7844,7 +8856,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>84</v>
       </c>
@@ -7897,7 +8909,7 @@
         <v>42.54</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>85</v>
       </c>
@@ -7950,7 +8962,7 @@
         <v>41.59</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>86</v>
       </c>
@@ -7986,7 +8998,7 @@
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>87</v>
       </c>
@@ -8022,7 +9034,7 @@
         <v>39.72</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="2">
         <v>88</v>
       </c>
@@ -8058,7 +9070,7 @@
         <v>38.78</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="2">
         <v>89</v>
       </c>
@@ -8094,7 +9106,7 @@
         <v>37.86</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="2">
         <v>90</v>
       </c>
@@ -8130,7 +9142,7 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="2">
         <v>91</v>
       </c>
@@ -8166,7 +9178,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="2">
         <v>92</v>
       </c>
@@ -8202,7 +9214,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="2">
         <v>93</v>
       </c>
@@ -8238,7 +9250,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="2">
         <v>94</v>
       </c>
@@ -8274,7 +9286,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="2">
         <v>95</v>
       </c>
@@ -8310,7 +9322,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="2">
         <v>96</v>
       </c>
@@ -8346,7 +9358,7 @@
         <v>31.71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="2">
         <v>102</v>
       </c>
@@ -8382,7 +9394,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="F41" s="2">
         <v>98</v>
       </c>
@@ -8407,7 +9419,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="F42" s="2">
         <v>99</v>
       </c>
@@ -8432,7 +9444,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="F43" s="2">
         <v>103</v>
       </c>
@@ -8456,7 +9468,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="Q44">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -8468,7 +9480,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="Q45">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8480,7 +9492,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="Q46">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -8492,7 +9504,10 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
+      <c r="E47" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="Q47">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8504,7 +9519,18 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
+      <c r="D48" s="2">
+        <v>60</v>
+      </c>
+      <c r="E48" s="2">
+        <f>H3-C3</f>
+        <v>0.48308484087518977</v>
+      </c>
+      <c r="F48" s="2">
+        <f>C3-H3</f>
+        <v>-0.48308484087518977</v>
+      </c>
       <c r="Q48">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -8516,7 +9542,18 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:19">
+      <c r="D49" s="2">
+        <v>61</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ref="E49:E97" si="3">H4-C4</f>
+        <v>0.45476876503691166</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" ref="F49:F87" si="4">C4-H4</f>
+        <v>-0.45476876503691166</v>
+      </c>
       <c r="Q49">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -8528,7 +9565,18 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:19">
+      <c r="D50" s="2">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32949626629921092</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.32949626629921092</v>
+      </c>
       <c r="Q50">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -8540,7 +9588,18 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:19">
+      <c r="D51" s="2">
+        <v>63</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25433633252416143</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.25433633252416143</v>
+      </c>
       <c r="Q51">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -8552,7 +9611,18 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="52" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:19">
+      <c r="D52" s="2">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11136251247708095</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.11136251247708095</v>
+      </c>
       <c r="Q52">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -8564,7 +9634,18 @@
         <v>20.98</v>
       </c>
     </row>
-    <row r="53" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:19">
+      <c r="D53" s="2">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>6.668025561243951E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.668025561243951E-2</v>
+      </c>
       <c r="Q53">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -8576,7 +9657,18 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="54" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:19">
+      <c r="D54" s="2">
+        <v>66</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.2893427143769074E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2893427143769074E-2</v>
+      </c>
       <c r="Q54">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -8588,7 +9680,18 @@
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="55" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:19">
+      <c r="D55" s="2">
+        <v>67</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.20630756837369901</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20630756837369901</v>
+      </c>
       <c r="Q55">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -8600,7 +9703,18 @@
         <v>18.68</v>
       </c>
     </row>
-    <row r="56" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:19">
+      <c r="D56" s="2">
+        <v>68</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.1454402878816623</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1454402878816623</v>
+      </c>
       <c r="Q56">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -8612,7 +9726,18 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="57" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:19">
+      <c r="D57" s="2">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.29805482751304524</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29805482751304524</v>
+      </c>
       <c r="Q57">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -8624,7 +9749,18 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="58" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:19">
+      <c r="D58" s="2">
+        <v>70</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.3716781163661711</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.3716781163661711</v>
+      </c>
       <c r="Q58">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -8636,7 +9772,18 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:19">
+      <c r="D59" s="2">
+        <v>71</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.4457743202884501</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4457743202884501</v>
+      </c>
       <c r="Q59">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -8648,7 +9795,18 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="60" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:19">
+      <c r="D60" s="2">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.51562822418881904</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.51562822418881904</v>
+      </c>
       <c r="Q60">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -8660,7 +9818,18 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="61" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:19">
+      <c r="D61" s="2">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.59931784335716465</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.59931784335716465</v>
+      </c>
       <c r="Q61">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -8672,7 +9841,18 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="62" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:19">
+      <c r="D62" s="2">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.66834187817537316</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.66834187817537316</v>
+      </c>
       <c r="Q62">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -8684,7 +9864,18 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="63" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:19">
+      <c r="D63" s="2">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.80806250172742988</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.80806250172742988</v>
+      </c>
       <c r="Q63">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -8696,7 +9887,18 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="64" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:19">
+      <c r="D64" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.94738225626498984</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.94738225626498984</v>
+      </c>
       <c r="Q64">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -8708,7 +9910,18 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="65" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:19">
+      <c r="D65" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.93522242198604122</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93522242198604122</v>
+      </c>
       <c r="Q65">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -8720,7 +9933,18 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="66" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:19">
+      <c r="D66" s="2">
+        <v>78</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.9437407330428198</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="4"/>
+        <v>0.9437407330428198</v>
+      </c>
       <c r="Q66">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -8732,7 +9956,18 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="67" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:19">
+      <c r="D67" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.97106044738307418</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="4"/>
+        <v>0.97106044738307418</v>
+      </c>
       <c r="Q67">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -8744,7 +9979,18 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="68" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:19">
+      <c r="D68" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.097433498197562</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="4"/>
+        <v>1.097433498197562</v>
+      </c>
       <c r="Q68">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -8756,9 +10002,20 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="69" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:19">
+      <c r="D69" s="2">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0476100416245981</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0476100416245981</v>
+      </c>
       <c r="Q69">
-        <f t="shared" ref="Q69:Q83" si="3">Q68+1</f>
+        <f t="shared" ref="Q69:Q83" si="5">Q68+1</f>
         <v>86</v>
       </c>
       <c r="R69">
@@ -8768,9 +10025,20 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="70" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:19">
+      <c r="D70" s="2">
+        <v>82</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0716579677496179</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0716579677496179</v>
+      </c>
       <c r="Q70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="R70">
@@ -8780,9 +10048,20 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="71" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:19">
+      <c r="D71" s="2">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.95961753641415681</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="4"/>
+        <v>0.95961753641415681</v>
+      </c>
       <c r="Q71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="R71">
@@ -8792,9 +10071,20 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="72" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:19">
+      <c r="D72" s="2">
+        <v>84</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.90123098838183191</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="4"/>
+        <v>0.90123098838183191</v>
+      </c>
       <c r="Q72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="R72">
@@ -8804,9 +10094,20 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="73" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:19">
+      <c r="D73" s="2">
+        <v>85</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.86222438931950784</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="4"/>
+        <v>0.86222438931950784</v>
+      </c>
       <c r="Q73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="R73">
@@ -8816,9 +10117,20 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="74" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:19">
+      <c r="D74" s="2">
+        <v>86</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.76774933845344595</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="4"/>
+        <v>0.76774933845344595</v>
+      </c>
       <c r="Q74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="R74">
@@ -8828,9 +10140,20 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="75" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:19">
+      <c r="D75" s="2">
+        <v>87</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.754487934010178</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="4"/>
+        <v>0.754487934010178</v>
+      </c>
       <c r="Q75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="R75">
@@ -8840,9 +10163,20 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="76" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:19">
+      <c r="D76" s="2">
+        <v>88</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.78288419150706368</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="4"/>
+        <v>0.78288419150706368</v>
+      </c>
       <c r="Q76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="R76">
@@ -8852,9 +10186,20 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="77" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:19">
+      <c r="D77" s="2">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.66589350839203976</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="4"/>
+        <v>0.66589350839203976</v>
+      </c>
       <c r="Q77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="R77">
@@ -8864,9 +10209,20 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="78" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:19">
+      <c r="D78" s="2">
+        <v>90</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.70449271755946841</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="4"/>
+        <v>0.70449271755946841</v>
+      </c>
       <c r="Q78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="R78">
@@ -8876,9 +10232,20 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="79" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:19">
+      <c r="D79" s="2">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.58044106406999285</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58044106406999285</v>
+      </c>
       <c r="Q79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="R79">
@@ -8888,9 +10255,20 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="80" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:19">
+      <c r="D80" s="2">
+        <v>92</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.47416900479774227</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47416900479774227</v>
+      </c>
       <c r="Q80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="R80">
@@ -8900,9 +10278,20 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="81" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:19">
+      <c r="D81" s="2">
+        <v>93</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.11267680317138795</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11267680317138795</v>
+      </c>
       <c r="Q81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="R81">
@@ -8912,9 +10301,20 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="82" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:19">
+      <c r="D82" s="2">
+        <v>94</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.9205968110979086E-2</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9205968110979086E-2</v>
+      </c>
       <c r="Q82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="R82">
@@ -8924,9 +10324,20 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="83" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:19">
+      <c r="D83" s="2">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25239575713025314</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.25239575713025314</v>
+      </c>
       <c r="Q83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R83">
@@ -8934,6 +10345,52 @@
       </c>
       <c r="S83">
         <v>8.15</v>
+      </c>
+    </row>
+    <row r="84" spans="4:19">
+      <c r="D84" s="2">
+        <v>96</v>
+      </c>
+      <c r="E84" s="2">
+        <f>H39-C39</f>
+        <v>0.26970265730181392</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.26970265730181392</v>
+      </c>
+    </row>
+    <row r="85" spans="4:19">
+      <c r="D85" s="2">
+        <v>102</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34296734060099943</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.34296734060099943</v>
+      </c>
+    </row>
+    <row r="86" spans="4:19">
+      <c r="E86" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44970476706352769</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.44970476706352769</v>
+      </c>
+    </row>
+    <row r="87" spans="4:19">
+      <c r="E87" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60951297361587364</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.60951297361587364</v>
       </c>
     </row>
   </sheetData>
@@ -8944,4 +10401,2346 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AD9019-44DF-437B-945D-A9EA392447D6}">
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView topLeftCell="D65" zoomScale="117" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>82.9</v>
+      </c>
+      <c r="C2" s="9">
+        <v>83.4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>80.197000000000003</v>
+      </c>
+      <c r="F2">
+        <v>86.234999999999999</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(E2:F2)</f>
+        <v>83.216000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10">
+        <v>82.2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>79.558999999999997</v>
+      </c>
+      <c r="F3">
+        <v>85.43</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">AVERAGE(E3:F3)</f>
+        <v>82.494500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9">
+        <v>81.2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>81.7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="1">D3+1</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>78.578999999999994</v>
+      </c>
+      <c r="F4">
+        <v>84.466999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>81.522999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10">
+        <v>80.2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>77.597999999999999</v>
+      </c>
+      <c r="F5">
+        <v>83.503</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>80.5505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>79.2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>79.7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>76.617000000000004</v>
+      </c>
+      <c r="F6">
+        <v>82.503</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>79.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>78.2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>78.7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>75.623000000000005</v>
+      </c>
+      <c r="F7">
+        <v>81.503</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>78.563000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9">
+        <v>77.2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>77.7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>74.635999999999996</v>
+      </c>
+      <c r="F8">
+        <v>80.503</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>77.569500000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10">
+        <v>76.2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>76.7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>73.641999999999996</v>
+      </c>
+      <c r="F9">
+        <v>79.503</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>76.572499999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9">
+        <v>75.2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>75.7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>72.653999999999996</v>
+      </c>
+      <c r="F10">
+        <v>78.503</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>75.578499999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10">
+        <v>74.3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>74.7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>71.653999999999996</v>
+      </c>
+      <c r="F11">
+        <v>77.503</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>74.578499999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>73.3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>73.7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>70.659000000000006</v>
+      </c>
+      <c r="F12">
+        <v>76.503</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>73.581000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="10">
+        <v>72.3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>72.7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>69.659000000000006</v>
+      </c>
+      <c r="F13">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>72.584500000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>71.3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>71.7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>68.671000000000006</v>
+      </c>
+      <c r="F14">
+        <v>74.522999999999996</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>71.597000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="10">
+        <v>70.3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>70.8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>67.676000000000002</v>
+      </c>
+      <c r="F15">
+        <v>73.528999999999996</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>70.602499999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9">
+        <v>69.3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>69.8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>66.686999999999998</v>
+      </c>
+      <c r="F16">
+        <v>72.528999999999996</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>69.608000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10">
+        <v>68.3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>65.703000000000003</v>
+      </c>
+      <c r="F17">
+        <v>71.528999999999996</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>68.616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>67.3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>67.8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>64.703000000000003</v>
+      </c>
+      <c r="F18">
+        <v>70.540999999999997</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>67.622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10">
+        <v>66.3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>66.8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>63.719000000000001</v>
+      </c>
+      <c r="F19">
+        <v>69.552999999999997</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>66.635999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9">
+        <v>65.3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>65.8</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>62.744999999999997</v>
+      </c>
+      <c r="F20">
+        <v>68.564999999999998</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>65.655000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="10">
+        <v>64.3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>64.8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>61.759</v>
+      </c>
+      <c r="F21">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>64.664500000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9">
+        <v>63.4</v>
+      </c>
+      <c r="C22" s="9">
+        <v>63.8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>60.787999999999997</v>
+      </c>
+      <c r="F22">
+        <v>66.585999999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>63.686999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="10">
+        <v>62.4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>62.9</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>59.807000000000002</v>
+      </c>
+      <c r="F23">
+        <v>65.608000000000004</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>62.707500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="C24" s="9">
+        <v>61.9</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>58.84</v>
+      </c>
+      <c r="F24">
+        <v>64.613</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>61.726500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="10">
+        <v>60.4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>60.9</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>57.863</v>
+      </c>
+      <c r="F25">
+        <v>63.628</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>60.7455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9">
+        <v>59.5</v>
+      </c>
+      <c r="C26" s="11">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>56.872999999999998</v>
+      </c>
+      <c r="F26">
+        <v>62.637999999999998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>59.755499999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10">
+        <v>58.5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>55.927</v>
+      </c>
+      <c r="F27">
+        <v>61.637999999999998</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>58.782499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9">
+        <v>57.5</v>
+      </c>
+      <c r="C28" s="11">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>54.96</v>
+      </c>
+      <c r="F28">
+        <v>60.637999999999998</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>57.798999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="10">
+        <v>56.5</v>
+      </c>
+      <c r="C29" s="12">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>54.008000000000003</v>
+      </c>
+      <c r="F29">
+        <v>59.652999999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>56.830500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="9">
+        <v>55.6</v>
+      </c>
+      <c r="C30" s="9">
+        <v>56.1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>53.021000000000001</v>
+      </c>
+      <c r="F30">
+        <v>58.658000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>55.839500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="10">
+        <v>54.6</v>
+      </c>
+      <c r="C31" s="10">
+        <v>55.1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>52.052999999999997</v>
+      </c>
+      <c r="F31">
+        <v>57.667999999999999</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>54.860500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="9">
+        <v>53.6</v>
+      </c>
+      <c r="C32" s="9">
+        <v>54.1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>51.093000000000004</v>
+      </c>
+      <c r="F32">
+        <v>56.677</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>53.885000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10">
+        <v>52.7</v>
+      </c>
+      <c r="C33" s="10">
+        <v>53.2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>50.124000000000002</v>
+      </c>
+      <c r="F33">
+        <v>55.7</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>52.912000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="9">
+        <v>51.7</v>
+      </c>
+      <c r="C34" s="9">
+        <v>52.2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>49.154000000000003</v>
+      </c>
+      <c r="F34">
+        <v>54.720999999999997</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>51.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="10">
+        <v>50.7</v>
+      </c>
+      <c r="C35" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>48.198</v>
+      </c>
+      <c r="F35">
+        <v>53.768999999999998</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>50.983499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9">
+        <v>49.8</v>
+      </c>
+      <c r="C36" s="9">
+        <v>50.3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>47.225000000000001</v>
+      </c>
+      <c r="F36">
+        <v>52.79</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>50.0075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="10">
+        <v>48.8</v>
+      </c>
+      <c r="C37" s="10">
+        <v>49.3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>46.279000000000003</v>
+      </c>
+      <c r="F37">
+        <v>51.802</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>49.040500000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9">
+        <v>47.8</v>
+      </c>
+      <c r="C38" s="9">
+        <v>48.3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>45.308999999999997</v>
+      </c>
+      <c r="F38">
+        <v>50.822000000000003</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>48.0655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="10">
+        <v>46.9</v>
+      </c>
+      <c r="C39" s="10">
+        <v>47.4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>44.356000000000002</v>
+      </c>
+      <c r="F39">
+        <v>49.83</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>47.093000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9">
+        <v>45.9</v>
+      </c>
+      <c r="C40" s="9">
+        <v>46.4</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>43.402999999999999</v>
+      </c>
+      <c r="F40">
+        <v>48.844999999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>46.123999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="10">
+        <v>44.9</v>
+      </c>
+      <c r="C41" s="10">
+        <v>45.4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>42.445999999999998</v>
+      </c>
+      <c r="F41">
+        <v>47.887</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>45.166499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="11">
+        <v>44</v>
+      </c>
+      <c r="C42" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>41.49</v>
+      </c>
+      <c r="F42">
+        <v>46.905000000000001</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>44.197500000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="12">
+        <v>43</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>40.552</v>
+      </c>
+      <c r="F43">
+        <v>45.936</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>43.244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42.1</v>
+      </c>
+      <c r="C44" s="9">
+        <v>42.6</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>39.61</v>
+      </c>
+      <c r="F44">
+        <v>44.978999999999999</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>42.294499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="10">
+        <v>41.2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>41.6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>38.67</v>
+      </c>
+      <c r="F45">
+        <v>43.997999999999998</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>41.334000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C46" s="9">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>37.753</v>
+      </c>
+      <c r="F46">
+        <v>43.027999999999999</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>40.390500000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="10">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C47" s="10">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>36.798999999999999</v>
+      </c>
+      <c r="F47">
+        <v>42.091999999999999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>39.445499999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="9">
+        <v>38.4</v>
+      </c>
+      <c r="C48" s="9">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>35.872</v>
+      </c>
+      <c r="F48">
+        <v>41.13</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>38.501000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="10">
+        <v>37.4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>37.9</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>34.976999999999997</v>
+      </c>
+      <c r="F49">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>37.588999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="9">
+        <v>36.5</v>
+      </c>
+      <c r="C50" s="11">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>34.101999999999997</v>
+      </c>
+      <c r="F50">
+        <v>39.237000000000002</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>36.669499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="10">
+        <v>35.6</v>
+      </c>
+      <c r="C51" s="10">
+        <v>36.1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>33.216999999999999</v>
+      </c>
+      <c r="F51">
+        <v>38.298999999999999</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>35.757999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C52" s="9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>32.320999999999998</v>
+      </c>
+      <c r="F52">
+        <v>37.351999999999997</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>34.836500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="10">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C53" s="10">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>31.41</v>
+      </c>
+      <c r="F53">
+        <v>36.424999999999997</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>33.917499999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="9">
+        <v>32.9</v>
+      </c>
+      <c r="C54" s="9">
+        <v>33.4</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>30.523</v>
+      </c>
+      <c r="F54">
+        <v>35.494</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>33.008499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="12">
+        <v>32</v>
+      </c>
+      <c r="C55" s="10">
+        <v>32.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>29.616</v>
+      </c>
+      <c r="F55">
+        <v>34.588000000000001</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>32.102000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="9">
+        <v>31.2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>31.6</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>28.783999999999999</v>
+      </c>
+      <c r="F56">
+        <v>33.661999999999999</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>31.222999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="10">
+        <v>30.3</v>
+      </c>
+      <c r="C57" s="10">
+        <v>30.7</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>27.93</v>
+      </c>
+      <c r="F57">
+        <v>32.753999999999998</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>30.341999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="C58" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>27.082000000000001</v>
+      </c>
+      <c r="F58">
+        <v>31.835000000000001</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>29.458500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="10">
+        <v>28.6</v>
+      </c>
+      <c r="C59" s="12">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>26.233000000000001</v>
+      </c>
+      <c r="F59">
+        <v>30.917999999999999</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>28.575499999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="C60" s="9">
+        <v>28.1</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>25.376999999999999</v>
+      </c>
+      <c r="F60">
+        <v>30.027000000000001</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>27.701999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="10">
+        <v>26.9</v>
+      </c>
+      <c r="C61" s="10">
+        <v>27.3</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>24.556999999999999</v>
+      </c>
+      <c r="F61">
+        <v>29.135999999999999</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>26.846499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="C62" s="9">
+        <v>26.4</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>23.704999999999998</v>
+      </c>
+      <c r="F62">
+        <v>28.228000000000002</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>25.9665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="10">
+        <v>25.3</v>
+      </c>
+      <c r="C63" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>22.902999999999999</v>
+      </c>
+      <c r="F63">
+        <v>27.303999999999998</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>25.103499999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="C64" s="9">
+        <v>24.8</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>22.106999999999999</v>
+      </c>
+      <c r="F64">
+        <v>26.42</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>24.263500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="10">
+        <v>23.6</v>
+      </c>
+      <c r="C65" s="10">
+        <v>23.9</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>21.286000000000001</v>
+      </c>
+      <c r="F65">
+        <v>25.542999999999999</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>23.4145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="9">
+        <v>22.8</v>
+      </c>
+      <c r="C66" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>20.527999999999999</v>
+      </c>
+      <c r="F66">
+        <v>24.687000000000001</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>22.607500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="12">
+        <v>22</v>
+      </c>
+      <c r="C67" s="10">
+        <v>22.3</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>19.753</v>
+      </c>
+      <c r="F67">
+        <v>23.808</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G86" si="2">AVERAGE(E67:F67)</f>
+        <v>21.7805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="C68" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D87" si="3">D67+1</f>
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>18.954999999999998</v>
+      </c>
+      <c r="F68">
+        <v>22.942</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>20.948499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="C69" s="10">
+        <v>20.7</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>18.22</v>
+      </c>
+      <c r="F69">
+        <v>22.106999999999999</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>20.163499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="C70" s="9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>17.460999999999999</v>
+      </c>
+      <c r="F70">
+        <v>21.277000000000001</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>19.369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="10">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C71" s="10">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>16.757999999999999</v>
+      </c>
+      <c r="F71">
+        <v>20.427</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>18.592500000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C72" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="F72">
+        <v>19.568000000000001</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>17.7835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C73" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>15.289</v>
+      </c>
+      <c r="F73">
+        <v>18.728999999999999</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>17.009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C74" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>14.569000000000001</v>
+      </c>
+      <c r="F74">
+        <v>17.907</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>16.238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="10">
+        <v>15.9</v>
+      </c>
+      <c r="C75" s="12">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>13.851000000000001</v>
+      </c>
+      <c r="F75">
+        <v>17.068999999999999</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15" thickBot="1">
+      <c r="A76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="C76" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>13.105</v>
+      </c>
+      <c r="F76">
+        <v>16.248000000000001</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>14.676500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15" thickBot="1">
+      <c r="A77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="C77" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>12.382999999999999</v>
+      </c>
+      <c r="F77">
+        <v>15.401999999999999</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>13.892499999999998</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L77" s="16">
+        <v>100</v>
+      </c>
+      <c r="M77" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N77" s="16">
+        <v>100</v>
+      </c>
+      <c r="O77" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P77" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15" thickBot="1">
+      <c r="A78" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="C78" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>11.699</v>
+      </c>
+      <c r="F78">
+        <v>14.625</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>13.161999999999999</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L78" s="13">
+        <v>17.8</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N78" s="13">
+        <v>17.8</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P78" s="13">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1">
+      <c r="A79" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="12">
+        <v>13</v>
+      </c>
+      <c r="C79" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>11.023999999999999</v>
+      </c>
+      <c r="F79">
+        <v>13.797000000000001</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>12.410499999999999</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L79" s="14">
+        <v>19.2</v>
+      </c>
+      <c r="M79" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N79" s="14">
+        <v>18.3</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P79" s="14">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15" thickBot="1">
+      <c r="A80" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="C80" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>10.339</v>
+      </c>
+      <c r="F80">
+        <v>13.009</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>11.673999999999999</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L80" s="13">
+        <v>20</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N80" s="13">
+        <v>19.2</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P80" s="13">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15" thickBot="1">
+      <c r="A81" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="C81" s="10">
+        <v>11.7</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>9.6890000000000001</v>
+      </c>
+      <c r="F81">
+        <v>12.228</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>10.958500000000001</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L81" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N81" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="O81" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P81" s="14">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15" thickBot="1">
+      <c r="A82" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="11">
+        <v>11</v>
+      </c>
+      <c r="C82" s="11">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F82">
+        <v>11.484</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>10.266999999999999</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L82" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N82" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P82" s="13">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1">
+      <c r="A83" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="C83" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>8.4420000000000002</v>
+      </c>
+      <c r="F83">
+        <v>10.731999999999999</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>9.5869999999999997</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L83" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="N83" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="O83" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P83" s="14">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C84" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>7.8520000000000003</v>
+      </c>
+      <c r="F84">
+        <v>10.023999999999999</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>8.9379999999999988</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C85" s="10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>7.266</v>
+      </c>
+      <c r="F85">
+        <v>9.3469999999999995</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>8.3064999999999998</v>
+      </c>
+      <c r="K85">
+        <f>(278861+176073)/1967299</f>
+        <v>0.23124802076349349</v>
+      </c>
+      <c r="L85">
+        <f>M85-K85</f>
+        <v>1.8056963262479686E-2</v>
+      </c>
+      <c r="M85">
+        <f>(189146+310977)/2006069</f>
+        <v>0.24930498402597318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C86" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>6.75</v>
+      </c>
+      <c r="F86">
+        <v>8.69</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C87" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>3.141</v>
+      </c>
+      <c r="F87">
+        <v>4.0303809523809537</v>
+      </c>
+      <c r="G87">
+        <v>7.0119999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/render/Graphiques mortalité.xlsx
+++ b/render/Graphiques mortalité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE8C67-A2BC-47C3-9D60-46C3C7D939C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE4F03-6E3A-47A5-B001-3076E629C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>age</t>
   </si>
@@ -431,6 +431,9 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t xml:space="preserve">Femmes </t>
+  </si>
 </sst>
 </file>
 
@@ -612,9 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -651,6 +651,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4421,6 +4424,1024 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>SansIncapH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$W$5:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.69281486841663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.090372078673299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.480681584937329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.87008240813819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.260841165605919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.653727886648239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.054636686806059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.44701877003806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8614291061731443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2933067504985232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7588074048296818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2170695207394306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.689611322324998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1737088503771318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6546567877681033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.170797953096482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7086262329352184</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2561137717314299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8403926684817433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4550109155497744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0702837158226943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.732964831196496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4410907681823568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1814638250712628</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.921716494243646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7133984419249222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DC10-4E9D-9D72-CD2BC588FF73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SansIncapF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Y$5:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>16.21347140820777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.53501983088146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.847536370309999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.145235440718389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.445103696465299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.752838716767389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.06238078920174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.380113368711021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.69795310720391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.05654145949743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4288138256657064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8245755511976185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.231189997843579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6429643452774636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0852168582577679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5304415198621308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0184392424744404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5232045970700749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0604615911109789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6157216729817607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2011518574350637</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8294867764409899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.508805225754378</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2017591308488398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9502496953593038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7032312979601958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DC10-4E9D-9D72-CD2BC588FF73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IncapH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$X$5:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.7722943800805737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6010857987071336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4473924737623882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3057463735360688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1635696161556659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0257515147469753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8796258970636837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7505049477785422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6046880633274974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.453414574967451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2799890663167401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.119776390455681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9455485907569594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7770557618355474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6052939167756746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4253303653826563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2350540765889297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0399138838653954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8313403691713566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6060010221260557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4055222332140849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1840271942315876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9452793255992722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7074883962922547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4957249430598818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2722809153925771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DC10-4E9D-9D72-CD2BC588FF73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>IncapF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Z$5:$Z$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>12.18603046215007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.98243552653109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.797227931678879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.62853306463175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.46179696836858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.29225080205747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.124593706854499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.94931677141963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.77562369676075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.580424088150551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.36645481739817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.14180255542346</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9121130547465821</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6911638793158463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4352858712233623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1995909285277122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9275278255260506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.664223793674255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3741671128414659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0824750189077168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7829303162313774</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4661173009082429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.128376206110139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7997185621870937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4575467290412982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1439774076931686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DC10-4E9D-9D72-CD2BC588FF73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1405960864"/>
+        <c:axId val="1349066208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1405960864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349066208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1349066208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405960864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>FRANCE</c:v>
           </c:tx>
           <c:spPr>
@@ -5501,6 +6522,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7088,6 +8149,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7157,6 +8734,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455B7BD5-4B71-C799-8FC5-AB5DD1EE41AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7493,10 +9106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555506B2-9E81-4121-BCA8-6C74D1B76C49}">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="130" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -7504,22 +9117,22 @@
     <col min="1" max="10" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="2">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="K1" t="s">
         <v>6</v>
       </c>
@@ -7532,8 +9145,11 @@
       <c r="P1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7584,7 +9200,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:26">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -7636,8 +9252,14 @@
         <v>65.81</v>
       </c>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="2">
         <v>61</v>
       </c>
@@ -7689,8 +9311,23 @@
       <c r="S4">
         <v>64.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="2">
         <v>62</v>
       </c>
@@ -7742,8 +9379,23 @@
       <c r="S5">
         <v>63.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="V5">
+        <v>60</v>
+      </c>
+      <c r="W5">
+        <v>14.69281486841663</v>
+      </c>
+      <c r="X5">
+        <v>8.7722943800805737</v>
+      </c>
+      <c r="Y5">
+        <v>16.21347140820777</v>
+      </c>
+      <c r="Z5">
+        <v>12.18603046215007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="2">
         <v>63</v>
       </c>
@@ -7795,8 +9447,23 @@
       <c r="S6">
         <v>62.89</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="V6">
+        <v>61</v>
+      </c>
+      <c r="W6">
+        <v>14.090372078673299</v>
+      </c>
+      <c r="X6">
+        <v>8.6010857987071336</v>
+      </c>
+      <c r="Y6">
+        <v>15.53501983088146</v>
+      </c>
+      <c r="Z6">
+        <v>11.98243552653109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="2">
         <v>64</v>
       </c>
@@ -7848,8 +9515,23 @@
       <c r="S7">
         <v>61.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7">
+        <v>62</v>
+      </c>
+      <c r="W7">
+        <v>13.480681584937329</v>
+      </c>
+      <c r="X7">
+        <v>8.4473924737623882</v>
+      </c>
+      <c r="Y7">
+        <v>14.847536370309999</v>
+      </c>
+      <c r="Z7">
+        <v>11.797227931678879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="2">
         <v>65</v>
       </c>
@@ -7901,8 +9583,23 @@
       <c r="S8">
         <v>60.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="V8">
+        <v>63</v>
+      </c>
+      <c r="W8">
+        <v>12.87008240813819</v>
+      </c>
+      <c r="X8">
+        <v>8.3057463735360688</v>
+      </c>
+      <c r="Y8">
+        <v>14.145235440718389</v>
+      </c>
+      <c r="Z8">
+        <v>11.62853306463175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="2">
         <v>66</v>
       </c>
@@ -7954,8 +9651,23 @@
       <c r="S9">
         <v>59.96</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9">
+        <v>64</v>
+      </c>
+      <c r="W9">
+        <v>12.260841165605919</v>
+      </c>
+      <c r="X9">
+        <v>8.1635696161556659</v>
+      </c>
+      <c r="Y9">
+        <v>13.445103696465299</v>
+      </c>
+      <c r="Z9">
+        <v>11.46179696836858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="2">
         <v>67</v>
       </c>
@@ -8007,8 +9719,23 @@
       <c r="S10">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="V10">
+        <v>65</v>
+      </c>
+      <c r="W10">
+        <v>11.653727886648239</v>
+      </c>
+      <c r="X10">
+        <v>8.0257515147469753</v>
+      </c>
+      <c r="Y10">
+        <v>12.752838716767389</v>
+      </c>
+      <c r="Z10">
+        <v>11.29225080205747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="2">
         <v>68</v>
       </c>
@@ -8060,8 +9787,23 @@
       <c r="S11">
         <v>58.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="V11">
+        <v>66</v>
+      </c>
+      <c r="W11">
+        <v>11.054636686806059</v>
+      </c>
+      <c r="X11">
+        <v>7.8796258970636837</v>
+      </c>
+      <c r="Y11">
+        <v>12.06238078920174</v>
+      </c>
+      <c r="Z11">
+        <v>11.124593706854499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="2">
         <v>69</v>
       </c>
@@ -8113,8 +9855,23 @@
       <c r="S12">
         <v>57.06</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="V12">
+        <v>67</v>
+      </c>
+      <c r="W12">
+        <v>10.44701877003806</v>
+      </c>
+      <c r="X12">
+        <v>7.7505049477785422</v>
+      </c>
+      <c r="Y12">
+        <v>11.380113368711021</v>
+      </c>
+      <c r="Z12">
+        <v>10.94931677141963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="2">
         <v>70</v>
       </c>
@@ -8166,8 +9923,23 @@
       <c r="S13">
         <v>56.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="V13">
+        <v>68</v>
+      </c>
+      <c r="W13">
+        <v>9.8614291061731443</v>
+      </c>
+      <c r="X13">
+        <v>7.6046880633274974</v>
+      </c>
+      <c r="Y13">
+        <v>10.69795310720391</v>
+      </c>
+      <c r="Z13">
+        <v>10.77562369676075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="2">
         <v>71</v>
       </c>
@@ -8219,8 +9991,23 @@
       <c r="S14">
         <v>55.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="V14">
+        <v>69</v>
+      </c>
+      <c r="W14">
+        <v>9.2933067504985232</v>
+      </c>
+      <c r="X14">
+        <v>7.453414574967451</v>
+      </c>
+      <c r="Y14">
+        <v>10.05654145949743</v>
+      </c>
+      <c r="Z14">
+        <v>10.580424088150551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="2">
         <v>72</v>
       </c>
@@ -8272,8 +10059,23 @@
       <c r="S15">
         <v>54.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="V15">
+        <v>70</v>
+      </c>
+      <c r="W15">
+        <v>8.7588074048296818</v>
+      </c>
+      <c r="X15">
+        <v>7.2799890663167401</v>
+      </c>
+      <c r="Y15">
+        <v>9.4288138256657064</v>
+      </c>
+      <c r="Z15">
+        <v>10.36645481739817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="2">
         <v>73</v>
       </c>
@@ -8325,8 +10127,23 @@
       <c r="S16">
         <v>53.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="V16">
+        <v>71</v>
+      </c>
+      <c r="W16">
+        <v>8.2170695207394306</v>
+      </c>
+      <c r="X16">
+        <v>7.119776390455681</v>
+      </c>
+      <c r="Y16">
+        <v>8.8245755511976185</v>
+      </c>
+      <c r="Z16">
+        <v>10.14180255542346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="2">
         <v>74</v>
       </c>
@@ -8378,8 +10195,23 @@
       <c r="S17">
         <v>52.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="V17">
+        <v>72</v>
+      </c>
+      <c r="W17">
+        <v>7.689611322324998</v>
+      </c>
+      <c r="X17">
+        <v>6.9455485907569594</v>
+      </c>
+      <c r="Y17">
+        <v>8.231189997843579</v>
+      </c>
+      <c r="Z17">
+        <v>9.9121130547465821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="2">
         <v>75</v>
       </c>
@@ -8431,8 +10263,23 @@
       <c r="S18">
         <v>51.23</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="V18">
+        <v>73</v>
+      </c>
+      <c r="W18">
+        <v>7.1737088503771318</v>
+      </c>
+      <c r="X18">
+        <v>6.7770557618355474</v>
+      </c>
+      <c r="Y18">
+        <v>7.6429643452774636</v>
+      </c>
+      <c r="Z18">
+        <v>9.6911638793158463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="2">
         <v>76</v>
       </c>
@@ -8484,8 +10331,23 @@
       <c r="S19">
         <v>50.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="V19">
+        <v>74</v>
+      </c>
+      <c r="W19">
+        <v>6.6546567877681033</v>
+      </c>
+      <c r="X19">
+        <v>6.6052939167756746</v>
+      </c>
+      <c r="Y19">
+        <v>7.0852168582577679</v>
+      </c>
+      <c r="Z19">
+        <v>9.4352858712233623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="2">
         <v>77</v>
       </c>
@@ -8537,8 +10399,23 @@
       <c r="S20">
         <v>49.29</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="V20">
+        <v>75</v>
+      </c>
+      <c r="W20">
+        <v>6.170797953096482</v>
+      </c>
+      <c r="X20">
+        <v>6.4253303653826563</v>
+      </c>
+      <c r="Y20">
+        <v>6.5304415198621308</v>
+      </c>
+      <c r="Z20">
+        <v>9.1995909285277122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="2">
         <v>78</v>
       </c>
@@ -8590,8 +10467,23 @@
       <c r="S21">
         <v>48.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="V21">
+        <v>76</v>
+      </c>
+      <c r="W21">
+        <v>5.7086262329352184</v>
+      </c>
+      <c r="X21">
+        <v>6.2350540765889297</v>
+      </c>
+      <c r="Y21">
+        <v>6.0184392424744404</v>
+      </c>
+      <c r="Z21">
+        <v>8.9275278255260506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="2">
         <v>79</v>
       </c>
@@ -8643,8 +10535,23 @@
       <c r="S22">
         <v>47.35</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="V22">
+        <v>77</v>
+      </c>
+      <c r="W22">
+        <v>5.2561137717314299</v>
+      </c>
+      <c r="X22">
+        <v>6.0399138838653954</v>
+      </c>
+      <c r="Y22">
+        <v>5.5232045970700749</v>
+      </c>
+      <c r="Z22">
+        <v>8.664223793674255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="2">
         <v>80</v>
       </c>
@@ -8696,8 +10603,23 @@
       <c r="S23">
         <v>46.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="V23">
+        <v>78</v>
+      </c>
+      <c r="W23">
+        <v>4.8403926684817433</v>
+      </c>
+      <c r="X23">
+        <v>5.8313403691713566</v>
+      </c>
+      <c r="Y23">
+        <v>5.0604615911109789</v>
+      </c>
+      <c r="Z23">
+        <v>8.3741671128414659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="2">
         <v>81</v>
       </c>
@@ -8749,8 +10671,23 @@
       <c r="S24">
         <v>45.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="V24">
+        <v>79</v>
+      </c>
+      <c r="W24">
+        <v>4.4550109155497744</v>
+      </c>
+      <c r="X24">
+        <v>5.6060010221260557</v>
+      </c>
+      <c r="Y24">
+        <v>4.6157216729817607</v>
+      </c>
+      <c r="Z24">
+        <v>8.0824750189077168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="2">
         <v>82</v>
       </c>
@@ -8802,8 +10739,23 @@
       <c r="S25">
         <v>44.47</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="V25">
+        <v>80</v>
+      </c>
+      <c r="W25">
+        <v>4.0702837158226943</v>
+      </c>
+      <c r="X25">
+        <v>5.4055222332140849</v>
+      </c>
+      <c r="Y25">
+        <v>4.2011518574350637</v>
+      </c>
+      <c r="Z25">
+        <v>7.7829303162313774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="2">
         <v>83</v>
       </c>
@@ -8855,8 +10807,23 @@
       <c r="S26">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="V26">
+        <v>81</v>
+      </c>
+      <c r="W26">
+        <v>3.732964831196496</v>
+      </c>
+      <c r="X26">
+        <v>5.1840271942315876</v>
+      </c>
+      <c r="Y26">
+        <v>3.8294867764409899</v>
+      </c>
+      <c r="Z26">
+        <v>7.4661173009082429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="2">
         <v>84</v>
       </c>
@@ -8908,8 +10875,23 @@
       <c r="S27">
         <v>42.54</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="V27">
+        <v>82</v>
+      </c>
+      <c r="W27">
+        <v>3.4410907681823568</v>
+      </c>
+      <c r="X27">
+        <v>4.9452793255992722</v>
+      </c>
+      <c r="Y27">
+        <v>3.508805225754378</v>
+      </c>
+      <c r="Z27">
+        <v>7.128376206110139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="2">
         <v>85</v>
       </c>
@@ -8961,8 +10943,23 @@
       <c r="S28">
         <v>41.59</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="V28">
+        <v>83</v>
+      </c>
+      <c r="W28">
+        <v>3.1814638250712628</v>
+      </c>
+      <c r="X28">
+        <v>4.7074883962922547</v>
+      </c>
+      <c r="Y28">
+        <v>3.2017591308488398</v>
+      </c>
+      <c r="Z28">
+        <v>6.7997185621870937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="2">
         <v>86</v>
       </c>
@@ -8997,8 +10994,23 @@
       <c r="S29">
         <v>40.659999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="V29">
+        <v>84</v>
+      </c>
+      <c r="W29">
+        <v>2.921716494243646</v>
+      </c>
+      <c r="X29">
+        <v>4.4957249430598818</v>
+      </c>
+      <c r="Y29">
+        <v>2.9502496953593038</v>
+      </c>
+      <c r="Z29">
+        <v>6.4575467290412982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="2">
         <v>87</v>
       </c>
@@ -9033,8 +11045,23 @@
       <c r="S30">
         <v>39.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="V30">
+        <v>85</v>
+      </c>
+      <c r="W30">
+        <v>2.7133984419249222</v>
+      </c>
+      <c r="X30">
+        <v>4.2722809153925771</v>
+      </c>
+      <c r="Y30">
+        <v>2.7032312979601958</v>
+      </c>
+      <c r="Z30">
+        <v>6.1439774076931686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="2">
         <v>88</v>
       </c>
@@ -9070,7 +11097,7 @@
         <v>38.78</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:26">
       <c r="A32" s="2">
         <v>89</v>
       </c>
@@ -9547,7 +11574,7 @@
         <v>61</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ref="E49:E97" si="3">H4-C4</f>
+        <f t="shared" ref="E49:E87" si="3">H4-C4</f>
         <v>0.45476876503691166</v>
       </c>
       <c r="F49" s="2">
@@ -10414,8 +12441,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -10435,13 +12462,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>82.9</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>83.4</v>
       </c>
       <c r="D2">
@@ -10459,13 +12486,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>82.2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>82.6</v>
       </c>
       <c r="D3">
@@ -10483,13 +12510,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>81.2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>81.7</v>
       </c>
       <c r="D4">
@@ -10508,13 +12535,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>80.2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>80.7</v>
       </c>
       <c r="D5">
@@ -10533,13 +12560,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>79.2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>79.7</v>
       </c>
       <c r="D6">
@@ -10558,13 +12585,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>78.2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>78.7</v>
       </c>
       <c r="D7">
@@ -10582,13 +12609,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>77.2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>77.7</v>
       </c>
       <c r="D8">
@@ -10607,13 +12634,13 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>76.2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>76.7</v>
       </c>
       <c r="D9">
@@ -10632,13 +12659,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>75.2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>75.7</v>
       </c>
       <c r="D10">
@@ -10657,13 +12684,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>74.3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>74.7</v>
       </c>
       <c r="D11">
@@ -10682,13 +12709,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>73.3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>73.7</v>
       </c>
       <c r="D12">
@@ -10707,13 +12734,13 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>72.3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>72.7</v>
       </c>
       <c r="D13">
@@ -10732,13 +12759,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>71.3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>71.7</v>
       </c>
       <c r="D14">
@@ -10757,13 +12784,13 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>70.3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>70.8</v>
       </c>
       <c r="D15">
@@ -10782,13 +12809,13 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>69.3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>69.8</v>
       </c>
       <c r="D16">
@@ -10807,13 +12834,13 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>68.3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>68.8</v>
       </c>
       <c r="D17">
@@ -10832,13 +12859,13 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>67.3</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>67.8</v>
       </c>
       <c r="D18">
@@ -10857,13 +12884,13 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>66.3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>66.8</v>
       </c>
       <c r="D19">
@@ -10882,13 +12909,13 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>65.3</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>65.8</v>
       </c>
       <c r="D20">
@@ -10907,13 +12934,13 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>64.3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>64.8</v>
       </c>
       <c r="D21">
@@ -10932,13 +12959,13 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>63.4</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>63.8</v>
       </c>
       <c r="D22">
@@ -10957,13 +12984,13 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>62.4</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>62.9</v>
       </c>
       <c r="D23">
@@ -10982,13 +13009,13 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>61.4</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>61.9</v>
       </c>
       <c r="D24">
@@ -11007,13 +13034,13 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>60.4</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>60.9</v>
       </c>
       <c r="D25">
@@ -11032,13 +13059,13 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>59.5</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>60</v>
       </c>
       <c r="D26">
@@ -11057,13 +13084,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>58.5</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>59</v>
       </c>
       <c r="D27">
@@ -11082,13 +13109,13 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>57.5</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>58</v>
       </c>
       <c r="D28">
@@ -11107,13 +13134,13 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>56.5</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>57</v>
       </c>
       <c r="D29">
@@ -11132,13 +13159,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>55.6</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>56.1</v>
       </c>
       <c r="D30">
@@ -11157,13 +13184,13 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>54.6</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>55.1</v>
       </c>
       <c r="D31">
@@ -11182,13 +13209,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>53.6</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>54.1</v>
       </c>
       <c r="D32">
@@ -11207,13 +13234,13 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>52.7</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>53.2</v>
       </c>
       <c r="D33">
@@ -11232,13 +13259,13 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>51.7</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>52.2</v>
       </c>
       <c r="D34">
@@ -11257,13 +13284,13 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>50.7</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>51.2</v>
       </c>
       <c r="D35">
@@ -11282,13 +13309,13 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>49.8</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>50.3</v>
       </c>
       <c r="D36">
@@ -11307,13 +13334,13 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>48.8</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>49.3</v>
       </c>
       <c r="D37">
@@ -11332,13 +13359,13 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>47.8</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>48.3</v>
       </c>
       <c r="D38">
@@ -11357,13 +13384,13 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>46.9</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>47.4</v>
       </c>
       <c r="D39">
@@ -11382,13 +13409,13 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>45.9</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>46.4</v>
       </c>
       <c r="D40">
@@ -11407,13 +13434,13 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>44.9</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>45.4</v>
       </c>
       <c r="D41">
@@ -11432,13 +13459,13 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>44</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>44.5</v>
       </c>
       <c r="D42">
@@ -11457,13 +13484,13 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>43</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>43.5</v>
       </c>
       <c r="D43">
@@ -11482,13 +13509,13 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>42.1</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>42.6</v>
       </c>
       <c r="D44">
@@ -11507,13 +13534,13 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>41.2</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>41.6</v>
       </c>
       <c r="D45">
@@ -11532,13 +13559,13 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>40.200000000000003</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>40.700000000000003</v>
       </c>
       <c r="D46">
@@ -11557,13 +13584,13 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>39.299999999999997</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>39.700000000000003</v>
       </c>
       <c r="D47">
@@ -11582,13 +13609,13 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>38.4</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>38.799999999999997</v>
       </c>
       <c r="D48">
@@ -11607,13 +13634,13 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>37.4</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>37.9</v>
       </c>
       <c r="D49">
@@ -11632,13 +13659,13 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>36.5</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>37</v>
       </c>
       <c r="D50">
@@ -11657,13 +13684,13 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>35.6</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>36.1</v>
       </c>
       <c r="D51">
@@ -11682,13 +13709,13 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>34.700000000000003</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>35.200000000000003</v>
       </c>
       <c r="D52">
@@ -11707,13 +13734,13 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>33.799999999999997</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>34.299999999999997</v>
       </c>
       <c r="D53">
@@ -11732,13 +13759,13 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>32.9</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>33.4</v>
       </c>
       <c r="D54">
@@ -11757,13 +13784,13 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>32</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>32.5</v>
       </c>
       <c r="D55">
@@ -11782,13 +13809,13 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>31.2</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>31.6</v>
       </c>
       <c r="D56">
@@ -11807,13 +13834,13 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>30.3</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>30.7</v>
       </c>
       <c r="D57">
@@ -11832,13 +13859,13 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>29.4</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>29.9</v>
       </c>
       <c r="D58">
@@ -11857,13 +13884,13 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>28.6</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>29</v>
       </c>
       <c r="D59">
@@ -11882,13 +13909,13 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>27.7</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>28.1</v>
       </c>
       <c r="D60">
@@ -11907,13 +13934,13 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>26.9</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>27.3</v>
       </c>
       <c r="D61">
@@ -11932,13 +13959,13 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>26.1</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>26.4</v>
       </c>
       <c r="D62">
@@ -11957,13 +13984,13 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>25.3</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>25.6</v>
       </c>
       <c r="D63">
@@ -11982,13 +14009,13 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>24.4</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>24.8</v>
       </c>
       <c r="D64">
@@ -12007,13 +14034,13 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>23.6</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>23.9</v>
       </c>
       <c r="D65">
@@ -12032,13 +14059,13 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>22.8</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>23.1</v>
       </c>
       <c r="D66">
@@ -12057,13 +14084,13 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>22</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>22.3</v>
       </c>
       <c r="D67">
@@ -12082,13 +14109,13 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>21.2</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>21.5</v>
       </c>
       <c r="D68">
@@ -12107,13 +14134,13 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>20.5</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>20.7</v>
       </c>
       <c r="D69">
@@ -12132,13 +14159,13 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>19.7</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>19.899999999999999</v>
       </c>
       <c r="D70">
@@ -12157,13 +14184,13 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>18.899999999999999</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>19.100000000000001</v>
       </c>
       <c r="D71">
@@ -12182,13 +14209,13 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>18.100000000000001</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>18.3</v>
       </c>
       <c r="D72">
@@ -12207,13 +14234,13 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="9">
         <v>17.600000000000001</v>
       </c>
       <c r="D73">
@@ -12232,13 +14259,13 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>16.8</v>
       </c>
       <c r="D74">
@@ -12257,13 +14284,13 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>15.9</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>16</v>
       </c>
       <c r="D75">
@@ -12282,13 +14309,13 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="15" thickBot="1">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>15.1</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>15.3</v>
       </c>
       <c r="D76">
@@ -12307,13 +14334,13 @@
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" thickBot="1">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>14.4</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>14.5</v>
       </c>
       <c r="D77">
@@ -12330,36 +14357,36 @@
         <f t="shared" si="2"/>
         <v>13.892499999999998</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="K77" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L77" s="16">
+      <c r="L77" s="15">
         <v>100</v>
       </c>
-      <c r="M77" s="16" t="s">
+      <c r="M77" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N77" s="15">
         <v>100</v>
       </c>
-      <c r="O77" s="16" t="s">
+      <c r="O77" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="P77" s="16">
+      <c r="P77" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="15" thickBot="1">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>13.7</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>13.8</v>
       </c>
       <c r="D78">
@@ -12376,36 +14403,36 @@
         <f t="shared" si="2"/>
         <v>13.161999999999999</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="K78" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="12">
         <v>17.8</v>
       </c>
-      <c r="M78" s="13" t="s">
+      <c r="M78" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N78" s="13">
+      <c r="N78" s="12">
         <v>17.8</v>
       </c>
-      <c r="O78" s="13" t="s">
+      <c r="O78" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P78" s="13">
+      <c r="P78" s="12">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" thickBot="1">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="11">
         <v>13</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>13.1</v>
       </c>
       <c r="D79">
@@ -12422,36 +14449,36 @@
         <f t="shared" si="2"/>
         <v>12.410499999999999</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="13">
         <v>19.2</v>
       </c>
-      <c r="M79" s="14" t="s">
+      <c r="M79" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N79" s="13">
         <v>18.3</v>
       </c>
-      <c r="O79" s="14" t="s">
+      <c r="O79" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P79" s="13">
         <v>17.600000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15" thickBot="1">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="8">
         <v>12.3</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>12.4</v>
       </c>
       <c r="D80">
@@ -12468,36 +14495,36 @@
         <f t="shared" si="2"/>
         <v>11.673999999999999</v>
       </c>
-      <c r="J80" s="17" t="s">
+      <c r="J80" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="K80" s="13" t="s">
+      <c r="K80" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L80" s="12">
         <v>20</v>
       </c>
-      <c r="M80" s="13" t="s">
+      <c r="M80" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N80" s="12">
         <v>19.2</v>
       </c>
-      <c r="O80" s="13" t="s">
+      <c r="O80" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="P80" s="13">
+      <c r="P80" s="12">
         <v>18.7</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15" thickBot="1">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>11.6</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>11.7</v>
       </c>
       <c r="D81">
@@ -12514,36 +14541,36 @@
         <f t="shared" si="2"/>
         <v>10.958500000000001</v>
       </c>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="13">
         <v>19.899999999999999</v>
       </c>
-      <c r="M81" s="14" t="s">
+      <c r="M81" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N81" s="13">
         <v>19.8</v>
       </c>
-      <c r="O81" s="14" t="s">
+      <c r="O81" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P81" s="13">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="15" thickBot="1">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>11</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="10">
         <v>11</v>
       </c>
       <c r="D82">
@@ -12560,36 +14587,36 @@
         <f t="shared" si="2"/>
         <v>10.266999999999999</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J82" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="K82" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="12">
         <v>14.2</v>
       </c>
-      <c r="M82" s="13" t="s">
+      <c r="M82" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N82" s="12">
         <v>15.5</v>
       </c>
-      <c r="O82" s="13" t="s">
+      <c r="O82" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="P82" s="13">
+      <c r="P82" s="12">
         <v>16.7</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>10.4</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>10.4</v>
       </c>
       <c r="D83">
@@ -12606,36 +14633,36 @@
         <f t="shared" si="2"/>
         <v>9.5869999999999997</v>
       </c>
-      <c r="J83" s="18" t="s">
+      <c r="J83" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="13">
         <v>8.9</v>
       </c>
-      <c r="M83" s="14" t="s">
+      <c r="M83" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="N83" s="14">
+      <c r="N83" s="13">
         <v>9.4</v>
       </c>
-      <c r="O83" s="14" t="s">
+      <c r="O83" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P83" s="14">
+      <c r="P83" s="13">
         <v>9.9</v>
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>9.8000000000000007</v>
       </c>
       <c r="D84">
@@ -12654,13 +14681,13 @@
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>9.1999999999999993</v>
       </c>
       <c r="D85">
@@ -12691,13 +14718,13 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>8.6</v>
       </c>
       <c r="D86">
@@ -12716,13 +14743,13 @@
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="9">
         <v>8.1</v>
       </c>
       <c r="D87">

--- a/render/Graphiques mortalité.xlsx
+++ b/render/Graphiques mortalité.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\render\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master 2\Analyse démo appliquée\ADA-Rapport-Dept-13\render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE4F03-6E3A-47A5-B001-3076E629C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853319D5-C24E-45AB-9A1C-71701BF1306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Graphs!$A$3:$A$38</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Graphs!$C$3:$C$38</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Graphs!$D$3:$D$38</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Graphs!$H$3:$H$38</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Graphs!$I$3:$I$38</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Graphs!$V$5:$V$30</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Graphs!$W$5:$W$30</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Graphs!$X$5:$X$30</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Graphs!$Y$5:$Y$30</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Graphs!$Z$5:$Z$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
   <si>
     <t>age</t>
   </si>
@@ -434,6 +446,15 @@
   <si>
     <t xml:space="preserve">Femmes </t>
   </si>
+  <si>
+    <t>Sans Incapacité</t>
+  </si>
+  <si>
+    <t>Avec Incapacité</t>
+  </si>
+  <si>
+    <t>Bouches du Rhone</t>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,6 +674,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4421,6 +4445,2692 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sans Incap H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$W$5:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.69281486841663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.090372078673299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.480681584937329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.87008240813819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.260841165605919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.653727886648239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.054636686806059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.44701877003806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8614291061731443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2933067504985232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7588074048296818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2170695207394306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.689611322324998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1737088503771318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6546567877681033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.170797953096482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7086262329352184</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2561137717314299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8403926684817433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4550109155497744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0702837158226943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.732964831196496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4410907681823568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1814638250712628</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.921716494243646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7133984419249222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sans Incap F Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Y$5:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>16.21347140820777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.53501983088146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.847536370309999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.145235440718389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.445103696465299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.752838716767389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.06238078920174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.380113368711021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.69795310720391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.05654145949743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4288138256657064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8245755511976185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.231189997843579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6429643452774636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0852168582577679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5304415198621308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0184392424744404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5232045970700749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0604615911109789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6157216729817607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2011518574350637</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8294867764409899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.508805225754378</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2017591308488398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9502496953593038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7032312979601958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Incapacité H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$X$5:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.7722943800805737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6010857987071336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4473924737623882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3057463735360688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1635696161556659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0257515147469753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8796258970636837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7505049477785422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6046880633274974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.453414574967451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2799890663167401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.119776390455681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9455485907569594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7770557618355474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6052939167756746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4253303653826563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2350540765889297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0399138838653954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8313403691713566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6060010221260557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4055222332140849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1840271942315876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9452793255992722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7074883962922547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4957249430598818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2722809153925771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Incapacité F Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="89000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Z$5:$Z$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>12.18603046215007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.98243552653109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.797227931678879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.62853306463175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.46179696836858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.29225080205747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.124593706854499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.94931677141963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.77562369676075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.580424088150551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.36645481739817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.14180255542346</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9121130547465821</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6911638793158463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4352858712233623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1995909285277122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9275278255260506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.664223793674255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3741671128414659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0824750189077168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7829303162313774</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4661173009082429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.128376206110139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7997185621870937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4575467290412982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1439774076931686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Hommes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22471466180882646"/>
+                  <c:y val="5.6493016791972522E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Hommes BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> (sans incapacité)</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:alpha val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$3:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>14.414561247262091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.767337991936479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.176248659160549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.591933320014119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.02247496144903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.394664345396031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.80337759255095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.33631078470666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6869476617034032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1819944081816818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6113037667880938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0331422597064801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5145603686673272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9686940661547796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4712818164351908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.983162869888246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.534352006779959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0274829948917477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.588806938259685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1317783034229132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.836817999817391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4465945564569811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1070169649509101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7876950758356909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.507940520966796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3026387232277599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.975003411570774</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7624892961156939</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6681084079666231</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.446801201856678</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3997697683778709</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.208264869801301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.015108733924224</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56472108924843423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.40354626969986718</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15761321516130539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Femmes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23952308472856418"/>
+                  <c:y val="2.5157002802504141E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Femmes</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> (sans incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$3:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>14.897646088137281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.222106756973391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.50574492545976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.846269652538281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.133837473926111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.46134460100847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.780484165407181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.130003216332961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5415073738217409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8839395806686365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2396256504219227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.58736793941803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9989321444785082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.369376222797615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8029399382598177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1751003681608161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5869697505149691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0922605729057064</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6450662052168652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.160717856039839</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.739384501619829</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.398984514832383</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0353589972012922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8280775394215341</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6067095325849641</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.440414333908252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.207254073117328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0080013621055159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8852242164595594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78090769346463829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69527705081840252</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62782380573130814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54093972912648169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.45204428607704628</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.37434030158888809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41000897229155853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Hommes 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12401714625854426"/>
+                  <c:y val="-8.3647009619406104E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Hommes BDR (incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$3:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>9.5655753700976334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4128966077909464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2108856345823096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9761593334874554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.790503818231068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6463193533400382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4433671867858031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1797007175013565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0735722014725404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.880959521666246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6968815873771028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5707098186167299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3760181881697582</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2098780761136112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9673858647643829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7410148073631859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5145923504362289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.35720376324171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1215404103509119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.941222989536179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6124651831204089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4136012211162869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1845826034434701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9430127553525844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7400212371964576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4487117873820248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3314842311819213</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1913866419882027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9021406160343308</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8105927957598031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.673886136509342</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.713071132388273</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8449310325717998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3534292586980596</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7372457481060621</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4436344582225074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Femmes2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5965395878026665E-2"/>
+                  <c:y val="-0.10449586210757536"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Femmes  BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>(incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$I$3:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>13.532259971014691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.28425667434608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.117792186181999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.90062787749463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.75855848495117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.55264072508624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.36901277817425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.186510608445859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.945848203795149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.75498206514877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.54207919752503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.357086996341231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.125810298125151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.919198997585781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.667215950129339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.450994861095239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.265419699230341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9351845910654522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5984266667008402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3051394690023397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9875171742011268</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5812867477538521</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2444841052006943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.783840966722213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3580554106422964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9426543118476518</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.595694691674078</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.2586969594669846</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8342044785787959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4978350667162417</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1159433768443874</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7893112518252758</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.527477395303424</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3178482313472024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1542687494571906</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9452577992827651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-E75C-4D9D-9525-4C5A96EC0DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2064567919"/>
+        <c:axId val="140866591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2064567919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Âge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140866591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140866591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années d'espérance de vie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064567919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -4429,7 +7139,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4615,7 +7327,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DC10-4E9D-9D72-CD2BC588FF73}"/>
+              <c16:uniqueId val="{00000000-0C9E-438C-B0DE-4036963127C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4628,7 +7340,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4814,7 +7529,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DC10-4E9D-9D72-CD2BC588FF73}"/>
+              <c16:uniqueId val="{00000001-0C9E-438C-B0DE-4036963127C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4827,8 +7542,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5013,7 +7731,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DC10-4E9D-9D72-CD2BC588FF73}"/>
+              <c16:uniqueId val="{00000002-0C9E-438C-B0DE-4036963127C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5026,8 +7744,13 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="89000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5212,7 +7935,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DC10-4E9D-9D72-CD2BC588FF73}"/>
+              <c16:uniqueId val="{00000003-0C9E-438C-B0DE-4036963127C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5235,6 +7958,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Âge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5277,6 +8055,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -5300,6 +8079,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années d'espérance de vie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5334,6 +8168,7 @@
         <c:crossAx val="1405960864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5343,37 +8178,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5418,7 +8222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5707,7 +8511,7 @@
             <c:numRef>
               <c:f>Feuil1!$B$62:$B$87</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.##########</c:formatCode>
+                <c:formatCode>#\ ##0.##########</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>26.1</c:v>
@@ -5724,7 +8528,7 @@
                 <c:pt idx="4">
                   <c:v>22.8</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#,##0.0">
+                <c:pt idx="5" formatCode="#\ ##0.0">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -5760,7 +8564,7 @@
                 <c:pt idx="16">
                   <c:v>13.7</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="#,##0.0">
+                <c:pt idx="17" formatCode="#\ ##0.0">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
@@ -5769,7 +8573,7 @@
                 <c:pt idx="19">
                   <c:v>11.6</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="#,##0.0">
+                <c:pt idx="20" formatCode="#\ ##0.0">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="21">
@@ -8705,16 +11509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380798</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>42877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>224367</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>42877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8741,16 +11545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257759</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>310117</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8770,6 +11574,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>191977</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133017</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>41706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4C854-1A50-4F01-B3F7-C330EB97A224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9108,13 +11950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555506B2-9E81-4121-BCA8-6C74D1B76C49}">
   <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="10" width="11.5546875" style="2"/>
+    <col min="1" max="10" width="11.54296875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -11133,7 +13975,7 @@
         <v>37.86</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:26">
       <c r="A33" s="2">
         <v>90</v>
       </c>
@@ -11169,7 +14011,7 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:26">
       <c r="A34" s="2">
         <v>91</v>
       </c>
@@ -11205,7 +14047,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:26">
       <c r="A35" s="2">
         <v>92</v>
       </c>
@@ -11241,7 +14083,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:26">
       <c r="A36" s="2">
         <v>93</v>
       </c>
@@ -11277,7 +14119,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:26">
       <c r="A37" s="2">
         <v>94</v>
       </c>
@@ -11313,7 +14155,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:26">
       <c r="A38" s="2">
         <v>95</v>
       </c>
@@ -11349,7 +14191,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:26">
       <c r="A39" s="2">
         <v>96</v>
       </c>
@@ -11384,8 +14226,14 @@
       <c r="S39">
         <v>31.71</v>
       </c>
+      <c r="Y39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:26">
       <c r="A40" s="2">
         <v>102</v>
       </c>
@@ -11420,8 +14268,20 @@
       <c r="S40">
         <v>30.83</v>
       </c>
+      <c r="W40" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>14.414561247262091</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>9.5655753700976334</v>
+      </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:26">
       <c r="F41" s="2">
         <v>98</v>
       </c>
@@ -11445,8 +14305,20 @@
         <f>29.95</f>
         <v>29.95</v>
       </c>
+      <c r="W41" s="19"/>
+      <c r="X41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="2">
+        <f>AJ14</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <f>AK14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:26">
       <c r="F42" s="2">
         <v>99</v>
       </c>
@@ -11470,8 +14342,20 @@
         <f>29.12</f>
         <v>29.12</v>
       </c>
+      <c r="W42" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>14.897646088137281</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>13.532259971014691</v>
+      </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:26">
       <c r="F43" s="2">
         <v>103</v>
       </c>
@@ -11494,8 +14378,20 @@
       <c r="S43">
         <v>28.26</v>
       </c>
+      <c r="W43" s="19"/>
+      <c r="X43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="2">
+        <f>AL14</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <f>AM14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:26">
       <c r="Q44">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -11507,7 +14403,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:26">
       <c r="Q45">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -11519,7 +14415,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:26">
       <c r="Q46">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -11531,7 +14427,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:26">
       <c r="E47" s="2" t="s">
         <v>131</v>
       </c>
@@ -11546,7 +14442,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:26">
       <c r="D48" s="2">
         <v>60</v>
       </c>
@@ -12421,9 +15317,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="W42:W43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12438,7 +15336,7 @@
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5"/>

--- a/render/Graphiques mortalité.xlsx
+++ b/render/Graphiques mortalité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master 2\Analyse démo appliquée\ADA-Rapport-Dept-13\render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853319D5-C24E-45AB-9A1C-71701BF1306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD96148-0DDF-4E6C-B7F0-021BD17C76C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,6 @@
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Graphs!$A$3:$A$38</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Graphs!$C$3:$C$38</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graphs!$D$3:$D$38</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Graphs!$H$3:$H$38</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Graphs!$I$3:$I$38</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Graphs!$V$5:$V$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Graphs!$W$5:$W$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Graphs!$X$5:$X$30</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Graphs!$Y$5:$Y$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Graphs!$Z$5:$Z$30</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4445,212 +4433,13 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Sans Incap H Fr</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$V$5:$V$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$W$5:$W$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>14.69281486841663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.090372078673299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.480681584937329</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.87008240813819</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.260841165605919</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.653727886648239</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.054636686806059</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.44701877003806</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8614291061731443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.2933067504985232</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.7588074048296818</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2170695207394306</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.689611322324998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.1737088503771318</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.6546567877681033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.170797953096482</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7086262329352184</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.2561137717314299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.8403926684817433</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.4550109155497744</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0702837158226943</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.732964831196496</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4410907681823568</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.1814638250712628</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.921716494243646</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7133984419249222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-E75C-4D9D-9525-4C5A96EC0DC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>Sans Incap F Fr</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="15875">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="40000"/>
@@ -4662,9 +4451,76 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1472801457764889E-2"/>
+                  <c:y val="0.16821542170224935"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Femmes BDR (sans incapacité</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-DAA9-4760-9F13-B60E3830D0E1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:f>Graphs!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4844,213 +4700,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Incapacité H Fr</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$V$5:$V$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$X$5:$X$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>8.7722943800805737</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6010857987071336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4473924737623882</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.3057463735360688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1635696161556659</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0257515147469753</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8796258970636837</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.7505049477785422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6046880633274974</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.453414574967451</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.2799890663167401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.119776390455681</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9455485907569594</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7770557618355474</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.6052939167756746</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.4253303653826563</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2350540765889297</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.0399138838653954</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8313403691713566</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.6060010221260557</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.4055222332140849</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.1840271942315876</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.9452793255992722</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.7074883962922547</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.4957249430598818</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.2722809153925771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-E75C-4D9D-9525-4C5A96EC0DC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="7"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Incapacité F Fr</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="15875">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -5064,9 +4720,138 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9825167280478384E-3"/>
+                  <c:y val="9.7565630373842541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Femmes  France (incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-DAA9-4760-9F13-B60E3830D0E1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$V$5:$V$30</c:f>
+              <c:f>Graphs!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5246,422 +5031,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Hommes</c:v>
-          </c:tx>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.22471466180882646"/>
-                  <c:y val="5.6493016791972522E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:ln>
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:alpha val="50000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                        </a:ln>
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US">
-                        <a:ln>
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:alpha val="50000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                        </a:ln>
-                      </a:rPr>
-                      <a:t>Hommes BDR</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:ln>
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:alpha val="50000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                        </a:ln>
-                      </a:rPr>
-                      <a:t> (sans incapacité)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:ln>
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:alpha val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:ln>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-E75C-4D9D-9525-4C5A96EC0DC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$A$3:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$C$3:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>14.414561247262091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.767337991936479</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.176248659160549</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.591933320014119</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.02247496144903</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.394664345396031</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.80337759255095</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.33631078470666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6869476617034032</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1819944081816818</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.6113037667880938</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0331422597064801</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.5145603686673272</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9686940661547796</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.4712818164351908</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.983162869888246</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.534352006779959</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0274829948917477</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.588806938259685</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.1317783034229132</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.836817999817391</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4465945564569811</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1070169649509101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.7876950758356909</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.507940520966796</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.3026387232277599</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.975003411570774</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.7624892961156939</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6681084079666231</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.446801201856678</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.3997697683778709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.208264869801301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.015108733924224</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.56472108924843423</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.40354626969986718</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.15761321516130539</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-E75C-4D9D-9525-4C5A96EC0DC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Femmes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="40000"/>
@@ -5830,10 +5203,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$3:$A$38</c:f>
+              <c:f>Graphs!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -5911,46 +5284,16 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$H$3:$H$38</c:f>
+              <c:f>Graphs!$H$3:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>14.897646088137281</c:v>
                 </c:pt>
@@ -6028,36 +5371,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.440414333908252</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.207254073117328</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0080013621055159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.8852242164595594</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78090769346463829</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.69527705081840252</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.62782380573130814</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54093972912648169</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.45204428607704628</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.37434030158888809</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.41000897229155853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6070,402 +5383,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Hommes 2</c:v>
-          </c:tx>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12401714625854426"/>
-                  <c:y val="-8.3647009619406104E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:ln>
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:alpha val="50000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                        </a:ln>
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US">
-                        <a:ln>
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:alpha val="50000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                        </a:ln>
-                      </a:rPr>
-                      <a:t>Hommes BDR (incapacité)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-E75C-4D9D-9525-4C5A96EC0DC9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$A$3:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$D$3:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>9.5655753700976334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4128966077909464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2108856345823096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9761593334874554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.790503818231068</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6463193533400382</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4433671867858031</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1797007175013565</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0735722014725404</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.880959521666246</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.6968815873771028</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.5707098186167299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.3760181881697582</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2098780761136112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9673858647643829</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.7410148073631859</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5145923504362289</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.35720376324171</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.1215404103509119</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.941222989536179</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.6124651831204089</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4136012211162869</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.1845826034434701</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.9430127553525844</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.7400212371964576</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.4487117873820248</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.3314842311819213</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.1913866419882027</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9021406160343308</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8105927957598031</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.673886136509342</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.713071132388273</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8449310325717998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.3534292586980596</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.7372457481060621</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.4436344582225074</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-E75C-4D9D-9525-4C5A96EC0DC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Femmes2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="40000"/>
@@ -6623,6 +5544,7 @@
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
+                          <a:alpha val="99000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:round/>
@@ -6635,10 +5557,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$3:$A$38</c:f>
+              <c:f>Graphs!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -6716,46 +5638,16 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$I$3:$I$38</c:f>
+              <c:f>Graphs!$I$3:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>13.532259971014691</c:v>
                 </c:pt>
@@ -6833,36 +5725,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6.9426543118476518</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.595694691674078</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.2586969594669846</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.8342044785787959</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.4978350667162417</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.1159433768443874</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.7893112518252758</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.527477395303424</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.3178482313472024</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1542687494571906</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.9452577992827651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7070,22 +5932,19 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="4"/>
+        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8223,6 +7082,4693 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sans Incap H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$W$5:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.69281486841663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.090372078673299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.480681584937329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.87008240813819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.260841165605919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.653727886648239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.054636686806059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.44701877003806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8614291061731443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2933067504985232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7588074048296818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2170695207394306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.689611322324998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1737088503771318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6546567877681033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.170797953096482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7086262329352184</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2561137717314299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8403926684817433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4550109155497744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0702837158226943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.732964831196496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4410907681823568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1814638250712628</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.921716494243646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7133984419249222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sans Incap F Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Y$5:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>16.21347140820777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.53501983088146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.847536370309999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.145235440718389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.445103696465299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.752838716767389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.06238078920174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.380113368711021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.69795310720391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.05654145949743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4288138256657064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8245755511976185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.231189997843579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6429643452774636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0852168582577679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5304415198621308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0184392424744404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5232045970700749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0604615911109789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6157216729817607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2011518574350637</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8294867764409899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.508805225754378</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2017591308488398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9502496953593038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7032312979601958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Incapacité H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$X$5:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.7722943800805737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6010857987071336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4473924737623882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3057463735360688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1635696161556659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0257515147469753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8796258970636837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7505049477785422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6046880633274974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.453414574967451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2799890663167401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.119776390455681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9455485907569594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7770557618355474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6052939167756746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4253303653826563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2350540765889297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0399138838653954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8313403691713566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6060010221260557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4055222332140849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1840271942315876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9452793255992722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7074883962922547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4957249430598818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2722809153925771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Incapacité F Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="89000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Z$5:$Z$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>12.18603046215007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.98243552653109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.797227931678879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.62853306463175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.46179696836858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.29225080205747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.124593706854499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.94931677141963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.77562369676075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.580424088150551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.36645481739817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.14180255542346</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9121130547465821</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6911638793158463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4352858712233623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1995909285277122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9275278255260506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.664223793674255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3741671128414659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0824750189077168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7829303162313774</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4661173009082429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.128376206110139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7997185621870937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4575467290412982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1439774076931686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22471466180882646"/>
+                  <c:y val="5.6493016791972522E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Hommes BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> (sans incapacité)</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:alpha val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$3:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.414561247262091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.767337991936479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.176248659160549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.591933320014119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.02247496144903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.394664345396031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.80337759255095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.33631078470666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6869476617034032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1819944081816818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6113037667880938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0331422597064801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5145603686673272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9686940661547796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4712818164351908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.983162869888246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.534352006779959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0274829948917477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.588806938259685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1317783034229132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.836817999817391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4465945564569811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1070169649509101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7876950758356909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.507940520966796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3026387232277599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23952308472856418"/>
+                  <c:y val="2.5157002802504141E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Femmes</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> (sans incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$3:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.897646088137281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.222106756973391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.50574492545976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.846269652538281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.133837473926111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.46134460100847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.780484165407181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.130003216332961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5415073738217409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8839395806686365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2396256504219227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.58736793941803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9989321444785082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.369376222797615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8029399382598177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1751003681608161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5869697505149691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0922605729057064</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6450662052168652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.160717856039839</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.739384501619829</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.398984514832383</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0353589972012922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8280775394215341</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6067095325849641</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.440414333908252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12401714625854426"/>
+                  <c:y val="-8.3647009619406104E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Hommes BDR (incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$3:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.5655753700976334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4128966077909464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2108856345823096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9761593334874554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.790503818231068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6463193533400382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4433671867858031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1797007175013565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0735722014725404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.880959521666246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6968815873771028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5707098186167299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3760181881697582</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2098780761136112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9673858647643829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7410148073631859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5145923504362289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.35720376324171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1215404103509119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.941222989536179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6124651831204089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4136012211162869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1845826034434701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9430127553525844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7400212371964576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4487117873820248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5965395878026665E-2"/>
+                  <c:y val="-0.10449586210757536"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Femmes  BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>(incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$I$3:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>13.532259971014691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.28425667434608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.117792186181999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.90062787749463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.75855848495117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.55264072508624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.36901277817425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.186510608445859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.945848203795149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.75498206514877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.54207919752503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.357086996341231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.125810298125151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.919198997585781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.667215950129339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.450994861095239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.265419699230341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9351845910654522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5984266667008402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3051394690023397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9875171742011268</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5812867477538521</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2444841052006943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.783840966722213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3580554106422964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9426543118476518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FD5D-4D1F-ADE4-A9BF4986D27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2064567919"/>
+        <c:axId val="140866591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2064567919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Âge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140866591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140866591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années d'espérance de vie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064567919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6185945848574885E-2"/>
+          <c:y val="0.10238904155442263"/>
+          <c:w val="0.90764364770126649"/>
+          <c:h val="0.7942344260955122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sans Incap H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$W$5:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.69281486841663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.090372078673299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.480681584937329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.87008240813819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.260841165605919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.653727886648239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.054636686806059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.44701877003806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8614291061731443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2933067504985232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7588074048296818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2170695207394306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.689611322324998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1737088503771318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6546567877681033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.170797953096482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7086262329352184</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2561137717314299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8403926684817433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4550109155497744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0702837158226943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.732964831196496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4410907681823568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1814638250712628</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.921716494243646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7133984419249222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Incapacité H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$X$5:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.7722943800805737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6010857987071336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4473924737623882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3057463735360688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1635696161556659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0257515147469753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8796258970636837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7505049477785422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6046880633274974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.453414574967451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2799890663167401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.119776390455681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9455485907569594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7770557618355474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6052939167756746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4253303653826563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2350540765889297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0399138838653954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8313403691713566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6060010221260557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4055222332140849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1840271942315876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9452793255992722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7074883962922547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4957249430598818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2722809153925771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$3:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.414561247262091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.767337991936479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.176248659160549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.591933320014119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.02247496144903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.394664345396031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.80337759255095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.33631078470666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6869476617034032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1819944081816818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6113037667880938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0331422597064801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5145603686673272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9686940661547796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4712818164351908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.983162869888246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.534352006779959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0274829948917477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.588806938259685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1317783034229132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.836817999817391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4465945564569811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1070169649509101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7876950758356909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.507940520966796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3026387232277599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$3:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.5655753700976334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4128966077909464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2108856345823096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9761593334874554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.790503818231068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6463193533400382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4433671867858031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1797007175013565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0735722014725404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.880959521666246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6968815873771028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5707098186167299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3760181881697582</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2098780761136112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9673858647643829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7410148073631859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5145923504362289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.35720376324171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1215404103509119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.941222989536179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6124651831204089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4136012211162869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1845826034434701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9430127553525844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7400212371964576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4487117873820248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Sans Incap H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9919953121499799E-2"/>
+                  <c:y val="7.6666986546119892E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Hommes France (sans incapacité</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-40F9-497B-97F4-3848CFD7B03C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$W$5:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.69281486841663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.090372078673299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.480681584937329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.87008240813819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.260841165605919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.653727886648239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.054636686806059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.44701877003806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8614291061731443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2933067504985232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7588074048296818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2170695207394306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.689611322324998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1737088503771318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6546567877681033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.170797953096482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7086262329352184</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2561137717314299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8403926684817433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4550109155497744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0702837158226943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.732964831196496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4410907681823568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1814638250712628</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.921716494243646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7133984419249222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Incapacité H Fr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10308098782848392"/>
+                  <c:y val="0.10310387845857516"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Hommes France ( incapacité</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-40F9-497B-97F4-3848CFD7B03C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$X$5:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.7722943800805737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6010857987071336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4473924737623882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3057463735360688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1635696161556659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0257515147469753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8796258970636837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7505049477785422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6046880633274974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.453414574967451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2799890663167401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.119776390455681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9455485907569594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7770557618355474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6052939167756746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4253303653826563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2350540765889297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0399138838653954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8313403691713566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6060010221260557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4055222332140849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1840271942315876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9452793255992722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7074883962922547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4957249430598818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2722809153925771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24782005832237414"/>
+                  <c:y val="6.9230432858699995E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Hommes BDR</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t> (sans incapacité)</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:alpha val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-40F9-497B-97F4-3848CFD7B03C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$3:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>14.414561247262091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.767337991936479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.176248659160549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.591933320014119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.02247496144903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.394664345396031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.80337759255095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.33631078470666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6869476617034032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1819944081816818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6113037667880938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0331422597064801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5145603686673272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9686940661547796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4712818164351908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.983162869888246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.534352006779959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0274829948917477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.588806938259685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1317783034229132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.836817999817391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4465945564569811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1070169649509101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7876950758356909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.507940520966796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3026387232277599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-40F9-497B-97F4-3848CFD7B03C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12401714625854426"/>
+                  <c:y val="-8.3647009619406104E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:alpha val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:ln>
+                      </a:rPr>
+                      <a:t>Hommes BDR (incapacité)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-40F9-497B-97F4-3848CFD7B03C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$3:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.5655753700976334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4128966077909464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2108856345823096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9761593334874554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.790503818231068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6463193533400382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4433671867858031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1797007175013565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0735722014725404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.880959521666246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6968815873771028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5707098186167299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3760181881697582</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2098780761136112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9673858647643829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7410148073631859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5145923504362289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.35720376324171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1215404103509119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.941222989536179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6124651831204089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4136012211162869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1845826034434701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9430127553525844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7400212371964576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4487117873820248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-40F9-497B-97F4-3848CFD7B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2064567919"/>
+        <c:axId val="140866591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2064567919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Âge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140866591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140866591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années d'espérance de vie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064567919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -11545,16 +15091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257759</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>611781</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>78421</xdr:rowOff>
+      <xdr:rowOff>22169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>310117</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>663421</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:rowOff>112700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11581,16 +15127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>191977</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>132907</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393618</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133017</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>41706</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11612,6 +15158,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>51641</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90531</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DACF1E-3B3F-4043-A844-7A0298C4F895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>568854</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>620495</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50842</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947DE171-CCCD-4AC8-BCDD-1B6C4487A8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11950,8 +15572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555506B2-9E81-4121-BCA8-6C74D1B76C49}">
   <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="Y3" zoomScale="70" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="AS45" sqref="AS45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
